--- a/biology/Botanique/John_Ball_(naturaliste)/John_Ball_(naturaliste).xlsx
+++ b/biology/Botanique/John_Ball_(naturaliste)/John_Ball_(naturaliste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Ball est un naturaliste, un alpiniste et un homme politique irlandais, né le 20 août 1818 à Dublin et mort le 21 octobre 1889 à Londres.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils aîné d’un juge irlandais, Nicholas Ball. Il fait ses études à l’Oscott College près de Birmingham et au Christ’s College à Cambridge. Il montre dès son jeune âge un attrait pour l’histoire naturelle et notamment la botanique. Après ses études, il voyage en Europe et explore particulièrement la Suisse en 1827. Ball publie des articles sur la flore et les glaciers suisses.
 En 1846, il devient assistant auprès du commissaire du Poor Law Board mais démissionne dès l’année suivante. En 1848, il est élu comme candidat au parlement pour la ville de Sligo. En 1849, il devient second commissaire du Poor Law Board et démissionne en 1852 après remporté le comté de Carlow pour le groupe libéral. Dans la chambre des communes britannique, il attire l’attention d’Henry Temple (1784-1865), troisième vicomte de Palmerston, qui le nomme sous-secrétaire pour les colonies, fonction qu’il conserve deux ans.
@@ -545,7 +559,9 @@
           <t>Ascensions alpines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pendant près de quarante ans, John Ball explore les Alpes, traversant plus de deux cents cols et réalisant un grand nombre d'ascensions parmi lesquelles :
 la première traversée du col de Schwarzthor dans le massif du Breithorn le 18 août 1845 ;
@@ -579,7 +595,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Traduction simplifiée de l'article de langue anglaise de Wikipédia (version du 12 novembre 2005).</t>
         </is>
